--- a/Resources/2002/Basic_Percentile_2002.xlsx
+++ b/Resources/2002/Basic_Percentile_2002.xlsx
@@ -1381,10 +1381,10 @@
     <t>Kevin Garnett</t>
   </si>
   <si>
-    <t>Tracy McGrady*</t>
-  </si>
-  <si>
-    <t>Karl Malone*</t>
+    <t>Tracy McGrady</t>
+  </si>
+  <si>
+    <t>Karl Malone</t>
   </si>
   <si>
     <t>Paul Pierce</t>
@@ -1432,7 +1432,7 @@
     <t>Eddie Jones</t>
   </si>
   <si>
-    <t>Michael Jordan*</t>
+    <t>Michael Jordan</t>
   </si>
   <si>
     <t>Glenn Robinson</t>
@@ -1441,22 +1441,22 @@
     <t>Vlade Divac</t>
   </si>
   <si>
-    <t>Gary Payton*</t>
-  </si>
-  <si>
-    <t>Shaquille O'Neal*</t>
+    <t>Gary Payton</t>
+  </si>
+  <si>
+    <t>Shaquille O'Neal</t>
   </si>
   <si>
     <t>Andre Miller</t>
   </si>
   <si>
-    <t>Jason Kidd*</t>
+    <t>Jason Kidd</t>
   </si>
   <si>
     <t>Lamar Odom</t>
   </si>
   <si>
-    <t>Scottie Pippen*</t>
+    <t>Scottie Pippen</t>
   </si>
   <si>
     <t>Clifford Robinson</t>
@@ -1486,7 +1486,7 @@
     <t>Pau Gasol</t>
   </si>
   <si>
-    <t>Allen Iverson*</t>
+    <t>Allen Iverson</t>
   </si>
   <si>
     <t>Marcus Camby</t>
@@ -1495,7 +1495,7 @@
     <t>Jamaal Tinsley</t>
   </si>
   <si>
-    <t>Ray Allen*</t>
+    <t>Ray Allen</t>
   </si>
   <si>
     <t>Lamond Murray</t>
@@ -1561,7 +1561,7 @@
     <t>Antawn Jamison</t>
   </si>
   <si>
-    <t>John Stockton*</t>
+    <t>John Stockton</t>
   </si>
   <si>
     <t>Jason Terry</t>
@@ -1570,7 +1570,7 @@
     <t>Raef LaFrentz</t>
   </si>
   <si>
-    <t>Grant Hill*</t>
+    <t>Grant Hill</t>
   </si>
   <si>
     <t>Keith Van Horn</t>
@@ -1579,7 +1579,7 @@
     <t>Larry Hughes</t>
   </si>
   <si>
-    <t>David Robinson*</t>
+    <t>David Robinson</t>
   </si>
   <si>
     <t>Kerry Kittles</t>
@@ -1594,7 +1594,7 @@
     <t>Wesley Person</t>
   </si>
   <si>
-    <t>Hakeem Olajuwon*</t>
+    <t>Hakeem Olajuwon</t>
   </si>
   <si>
     <t>Peja Stojakovic</t>
@@ -1621,7 +1621,7 @@
     <t>Stephon Marbury</t>
   </si>
   <si>
-    <t>Alonzo Mourning*</t>
+    <t>Alonzo Mourning</t>
   </si>
   <si>
     <t>Mike Miller</t>
@@ -1660,7 +1660,7 @@
     <t>Damon Stoudamire</t>
   </si>
   <si>
-    <t>Dikembe Mutombo*</t>
+    <t>Dikembe Mutombo</t>
   </si>
   <si>
     <t>Ruben Patterson</t>
@@ -1723,7 +1723,7 @@
     <t>Tim Thomas</t>
   </si>
   <si>
-    <t>Reggie Miller*</t>
+    <t>Reggie Miller</t>
   </si>
   <si>
     <t>Bob Sura</t>
@@ -1957,7 +1957,7 @@
     <t>Brian Skinner</t>
   </si>
   <si>
-    <t>Steve Nash*</t>
+    <t>Steve Nash</t>
   </si>
   <si>
     <t>Eddie Robinson</t>
@@ -2116,7 +2116,7 @@
     <t>Kevin Ollie</t>
   </si>
   <si>
-    <t>Patrick Ewing*</t>
+    <t>Patrick Ewing</t>
   </si>
   <si>
     <t>Scott Padgett</t>
@@ -2548,7 +2548,7 @@
     <t>Carlos Arroyo</t>
   </si>
   <si>
-    <t>Mitch Richmond*</t>
+    <t>Mitch Richmond</t>
   </si>
   <si>
     <t>Gerald Wallace</t>
